--- a/biology/Zoologie/Parc_national_marin_du_Golfe_de_Mannar/Parc_national_marin_du_Golfe_de_Mannar.xlsx
+++ b/biology/Zoologie/Parc_national_marin_du_Golfe_de_Mannar/Parc_national_marin_du_Golfe_de_Mannar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national marin du Golfe de Mannar (Gulf of Mannar Marine National Park en anglais et மன்னார் வளைகுடா தேசிய கடல்சார் உயிரியல் பூங்கா en tamoul) est situé en Inde, dans le golfe de Mannar, en bordure de l'État du Tamil Nadu. On y trouve notamment plusieurs espèces de dauphin.
 Géographiquement, le parc est constitué d'un chapelet d'îles et de récifs coralliens faisant face au district de Ramanathapuram et à la côte des pêcheurs de perles (district de Thoothukudi), de Rameshwaram à Thoothukudi.
-Le parc est également reconnu par l'Unesco en tant que réserve de biosphère depuis 2001[2].
+Le parc est également reconnu par l'Unesco en tant que réserve de biosphère depuis 2001.
 Les visiteurs peuvent explorer certaines îles et récifs protégés dans les bateaux à fond de verre entretenus par l'office des forêts de Mandapam.
 </t>
         </is>
